--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_エラー画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_エラー画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB221F-1305-4C4B-BF7E-9645CAE0E692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269D65DB-3C85-C44C-8277-AFB891FBED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20920" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">エラー画面!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">エラー画面!$A$1:$AX$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">エラー画面!$A$1:$AX$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AY$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$68</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -226,12 +226,168 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>遠山</t>
+    <rPh sb="0" eb="2">
+      <t>トオヤｍア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目定義</t>
+    <rPh sb="0" eb="6">
+      <t>ガメンコウモクテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目区分</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導出元</t>
+  </si>
+  <si>
+    <t>表示内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>‐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション定義</t>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを再起動する</t>
+  </si>
+  <si>
+    <t>アプリを終了する</t>
+    <rPh sb="3" eb="4">
+      <t>ヲ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを再起動する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを終了する</t>
+    <rPh sb="0" eb="3">
+      <t>アプリヲ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを終了して、再度起動する。</t>
+    <rPh sb="4" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイｄオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ再起動、アプリ終了ボタン配置、メッセージ修正</t>
+    <rPh sb="3" eb="6">
+      <t>サイｋイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイｔイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -349,16 +505,31 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="MeiryoUI"/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF333333"/>
-      <name val="Yu Gothic"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -507,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,9 +745,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -604,13 +772,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -622,6 +784,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,50 +856,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -712,14 +883,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,7 +996,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3471"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3551"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -827,7 +1055,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2441"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2521"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -856,15 +1084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>35277</xdr:colOff>
+      <xdr:colOff>105832</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>35278</xdr:rowOff>
+      <xdr:rowOff>47038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152871</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>164629</xdr:rowOff>
+      <xdr:rowOff>176389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -879,8 +1107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="293981" y="2775185"/>
-          <a:ext cx="3586575" cy="5444537"/>
+          <a:off x="364536" y="2786945"/>
+          <a:ext cx="3151483" cy="5444537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -918,17 +1146,13 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>申し訳ございません。</a:t>
+            <a:t>予期せぬ不具合が発生しました。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -944,7 +1168,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>エラーが発生しました。</a:t>
+            <a:t>畏れ入りますが、しばらく経ってから操作してください。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -960,23 +1184,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>しばらく経ってから操作してください。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>畏れ入りますが、復旧しない場合はお問合せください。</a:t>
+            <a:t>復旧しない場合はお問合せください。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -1033,6 +1241,190 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>188149</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>164630</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B32C7AE-A829-DA43-A405-FF8FD25C0041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="446853" y="4915370"/>
+          <a:ext cx="1269999" cy="223426"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:lumMod val="0"/>
+                <a:lumOff val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:lumMod val="0"/>
+                <a:lumOff val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="92000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アプリを再起動する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176388</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152869</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>117591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41C44EF-6389-6C4D-A898-FB922694929D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="435092" y="5232869"/>
+          <a:ext cx="1269999" cy="223426"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:lumMod val="0"/>
+                <a:lumOff val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:lumMod val="0"/>
+                <a:lumOff val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="92000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アプリを終了する</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1344,193 +1736,197 @@
   <dimension ref="A1:BA4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:53" ht="15" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="47" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="47" t="s">
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="47" t="s">
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="49"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="37"/>
       <c r="BA1" s="3"/>
     </row>
     <row r="2" spans="1:53" ht="15" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="50" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="50" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="56">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="44">
         <v>44575</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="50" t="s">
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="52"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="44">
+        <v>44576</v>
+      </c>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="40"/>
       <c r="BA2" s="3"/>
     </row>
     <row r="3" spans="1:53" ht="15" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="55"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="43"/>
       <c r="BA3" s="3"/>
     </row>
     <row r="4" spans="1:53" ht="15" customHeight="1">
@@ -1547,6 +1943,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -1555,11 +1956,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1659,12 +2055,12 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="62">
         <v>44575</v>
       </c>
@@ -1719,26 +2115,34 @@
       <c r="AZ8" s="67"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="9">
         <f>IF(G9="","",ROW()-7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="62"/>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62">
+        <v>44576</v>
+      </c>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="63"/>
       <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
+      <c r="L9" s="65" t="s">
+        <v>19</v>
+      </c>
       <c r="M9" s="66"/>
       <c r="N9" s="66"/>
       <c r="O9" s="66"/>
       <c r="P9" s="67"/>
-      <c r="Q9" s="65"/>
+      <c r="Q9" s="65" t="s">
+        <v>46</v>
+      </c>
       <c r="R9" s="66"/>
       <c r="S9" s="66"/>
       <c r="T9" s="66"/>
@@ -1781,10 +2185,10 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="62"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -1838,10 +2242,10 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="62"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -1895,10 +2299,10 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="62"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -1952,10 +2356,10 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="62"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
@@ -2009,10 +2413,10 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="62"/>
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
@@ -2066,10 +2470,10 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="62"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
@@ -2123,10 +2527,10 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -2180,10 +2584,10 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="62"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -2237,10 +2641,10 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="62"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
@@ -2294,10 +2698,10 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="62"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -2351,10 +2755,10 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="62"/>
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
@@ -2408,10 +2812,10 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="62"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
@@ -2465,10 +2869,10 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="62"/>
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
@@ -2522,10 +2926,10 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="62"/>
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
@@ -2579,10 +2983,10 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="62"/>
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
@@ -2636,10 +3040,10 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="62"/>
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
@@ -2693,10 +3097,10 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="62"/>
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
@@ -2750,10 +3154,10 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="62"/>
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
@@ -2807,10 +3211,10 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="62"/>
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
@@ -2864,10 +3268,10 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="62"/>
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
@@ -2921,10 +3325,10 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
@@ -2978,10 +3382,10 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="62"/>
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
@@ -3035,10 +3439,10 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="62"/>
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
@@ -3092,10 +3496,10 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="62"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
@@ -3149,10 +3553,10 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="62"/>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
@@ -3206,10 +3610,10 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="70"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="62"/>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
@@ -3259,6 +3663,136 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -3269,136 +3803,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3412,9 +3816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
   <dimension ref="A1:BA54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
@@ -3424,323 +3826,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" customFormat="1" ht="15">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
     </row>
     <row r="2" spans="1:53" customFormat="1" ht="15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
     </row>
     <row r="3" spans="1:53" customFormat="1" ht="15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
     </row>
     <row r="4" spans="1:53" customFormat="1" ht="15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
     </row>
     <row r="5" spans="1:53" customFormat="1" ht="15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
     </row>
     <row r="6" spans="1:53" customFormat="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
@@ -3793,63 +4195,63 @@
       <c r="AW7" s="19"/>
       <c r="AX7" s="19"/>
     </row>
-    <row r="8" spans="1:53" s="36" customFormat="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="35"/>
-      <c r="BA8" s="35"/>
+    <row r="8" spans="1:53" s="33" customFormat="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="19"/>
@@ -3903,7 +4305,7 @@
       <c r="AX9" s="19"/>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="19"/>
@@ -3957,7 +4359,7 @@
       <c r="AX10" s="19"/>
     </row>
     <row r="11" spans="1:53">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -4090,32 +4492,32 @@
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -4167,7 +4569,7 @@
       <c r="AX14" s="19"/>
     </row>
     <row r="15" spans="1:53">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4219,7 +4621,7 @@
       <c r="AX15" s="19"/>
     </row>
     <row r="16" spans="1:53">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4271,7 +4673,7 @@
       <c r="AX16" s="19"/>
     </row>
     <row r="17" spans="1:50">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4323,7 +4725,7 @@
       <c r="AX17" s="19"/>
     </row>
     <row r="18" spans="1:50">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4375,7 +4777,7 @@
       <c r="AX18" s="19"/>
     </row>
     <row r="19" spans="1:50">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -4427,7 +4829,7 @@
       <c r="AX19" s="19"/>
     </row>
     <row r="20" spans="1:50">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -4479,7 +4881,7 @@
       <c r="AX20" s="19"/>
     </row>
     <row r="21" spans="1:50">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -4531,7 +4933,7 @@
       <c r="AX21" s="19"/>
     </row>
     <row r="22" spans="1:50">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -4583,7 +4985,7 @@
       <c r="AX22" s="19"/>
     </row>
     <row r="23" spans="1:50">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -4635,7 +5037,7 @@
       <c r="AX23" s="19"/>
     </row>
     <row r="24" spans="1:50">
-      <c r="A24" s="29"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -4687,7 +5089,7 @@
       <c r="AX24" s="19"/>
     </row>
     <row r="25" spans="1:50">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -4739,7 +5141,7 @@
       <c r="AX25" s="19"/>
     </row>
     <row r="26" spans="1:50">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -4791,7 +5193,7 @@
       <c r="AX26" s="19"/>
     </row>
     <row r="27" spans="1:50">
-      <c r="A27" s="29"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -4843,7 +5245,7 @@
       <c r="AX27" s="19"/>
     </row>
     <row r="28" spans="1:50">
-      <c r="A28" s="29"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4895,7 +5297,7 @@
       <c r="AX28" s="19"/>
     </row>
     <row r="29" spans="1:50">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -4947,7 +5349,7 @@
       <c r="AX29" s="19"/>
     </row>
     <row r="30" spans="1:50" ht="25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -4985,7 +5387,7 @@
       <c r="AJ30" s="19"/>
       <c r="AK30" s="19"/>
       <c r="AL30" s="19"/>
-      <c r="AM30" s="34"/>
+      <c r="AM30" s="31"/>
       <c r="AN30" s="19"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
@@ -4999,7 +5401,7 @@
       <c r="AX30" s="19"/>
     </row>
     <row r="31" spans="1:50">
-      <c r="A31" s="29"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -5051,7 +5453,7 @@
       <c r="AX31" s="19"/>
     </row>
     <row r="32" spans="1:50">
-      <c r="A32" s="29"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -5102,8 +5504,8 @@
       <c r="AW32" s="19"/>
       <c r="AX32" s="19"/>
     </row>
-    <row r="33" spans="1:50">
-      <c r="A33" s="29"/>
+    <row r="33" spans="1:51">
+      <c r="A33" s="28"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -5154,8 +5556,8 @@
       <c r="AW33" s="19"/>
       <c r="AX33" s="19"/>
     </row>
-    <row r="34" spans="1:50">
-      <c r="A34" s="29"/>
+    <row r="34" spans="1:51">
+      <c r="A34" s="28"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -5206,8 +5608,8 @@
       <c r="AW34" s="19"/>
       <c r="AX34" s="19"/>
     </row>
-    <row r="35" spans="1:50">
-      <c r="A35" s="29"/>
+    <row r="35" spans="1:51">
+      <c r="A35" s="28"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -5258,8 +5660,8 @@
       <c r="AW35" s="19"/>
       <c r="AX35" s="19"/>
     </row>
-    <row r="36" spans="1:50">
-      <c r="A36" s="29"/>
+    <row r="36" spans="1:51">
+      <c r="A36" s="28"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -5310,8 +5712,8 @@
       <c r="AW36" s="19"/>
       <c r="AX36" s="19"/>
     </row>
-    <row r="37" spans="1:50">
-      <c r="A37" s="29"/>
+    <row r="37" spans="1:51">
+      <c r="A37" s="28"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -5362,8 +5764,8 @@
       <c r="AW37" s="19"/>
       <c r="AX37" s="19"/>
     </row>
-    <row r="38" spans="1:50">
-      <c r="A38" s="29"/>
+    <row r="38" spans="1:51">
+      <c r="A38" s="28"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -5414,8 +5816,8 @@
       <c r="AW38" s="19"/>
       <c r="AX38" s="19"/>
     </row>
-    <row r="39" spans="1:50">
-      <c r="A39" s="29"/>
+    <row r="39" spans="1:51">
+      <c r="A39" s="28"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -5466,8 +5868,8 @@
       <c r="AW39" s="19"/>
       <c r="AX39" s="19"/>
     </row>
-    <row r="40" spans="1:50">
-      <c r="A40" s="29"/>
+    <row r="40" spans="1:51">
+      <c r="A40" s="28"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -5518,8 +5920,8 @@
       <c r="AW40" s="19"/>
       <c r="AX40" s="19"/>
     </row>
-    <row r="41" spans="1:50">
-      <c r="A41" s="29"/>
+    <row r="41" spans="1:51">
+      <c r="A41" s="28"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -5570,8 +5972,8 @@
       <c r="AW41" s="19"/>
       <c r="AX41" s="19"/>
     </row>
-    <row r="42" spans="1:50">
-      <c r="A42" s="29"/>
+    <row r="42" spans="1:51">
+      <c r="A42" s="28"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -5622,208 +6024,513 @@
       <c r="AW42" s="19"/>
       <c r="AX42" s="19"/>
     </row>
-    <row r="43" spans="1:50">
-      <c r="A43" s="29"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="19"/>
-      <c r="AN43" s="19"/>
-      <c r="AO43" s="19"/>
-      <c r="AP43" s="19"/>
-      <c r="AQ43" s="19"/>
-      <c r="AR43" s="19"/>
-      <c r="AS43" s="19"/>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="19"/>
-      <c r="AV43" s="19"/>
-      <c r="AW43" s="19"/>
-      <c r="AX43" s="19"/>
-    </row>
-    <row r="44" spans="1:50">
-      <c r="A44" s="29"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="19"/>
-      <c r="AJ44" s="19"/>
-      <c r="AK44" s="19"/>
-      <c r="AL44" s="19"/>
-      <c r="AM44" s="19"/>
-      <c r="AN44" s="19"/>
-      <c r="AO44" s="19"/>
-      <c r="AP44" s="19"/>
-      <c r="AQ44" s="19"/>
-      <c r="AR44" s="19"/>
-      <c r="AS44" s="19"/>
-      <c r="AT44" s="19"/>
-      <c r="AU44" s="19"/>
-      <c r="AV44" s="19"/>
-      <c r="AW44" s="19"/>
-      <c r="AX44" s="19"/>
-    </row>
-    <row r="45" spans="1:50">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="31"/>
-      <c r="AL45" s="31"/>
-      <c r="AM45" s="31"/>
-      <c r="AN45" s="31"/>
-      <c r="AO45" s="31"/>
-      <c r="AP45" s="31"/>
-      <c r="AQ45" s="31"/>
-      <c r="AR45" s="31"/>
-      <c r="AS45" s="31"/>
-      <c r="AT45" s="31"/>
-      <c r="AU45" s="31"/>
-      <c r="AV45" s="31"/>
-      <c r="AW45" s="31"/>
-      <c r="AX45" s="31"/>
-    </row>
-    <row r="46" spans="1:50">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-    </row>
-    <row r="47" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-    </row>
-    <row r="48" spans="1:50">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="21"/>
-    </row>
-    <row r="51" spans="1:3">
+    <row r="43" spans="1:51">
+      <c r="A43" s="28"/>
+      <c r="B43" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="68"/>
+      <c r="AK43" s="68"/>
+      <c r="AL43" s="68"/>
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="68"/>
+      <c r="AO43" s="68"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="68"/>
+      <c r="AR43" s="68"/>
+      <c r="AS43" s="68"/>
+      <c r="AT43" s="68"/>
+      <c r="AU43" s="68"/>
+      <c r="AV43" s="68"/>
+      <c r="AW43" s="68"/>
+      <c r="AX43" s="68"/>
+    </row>
+    <row r="44" spans="1:51" s="68" customFormat="1">
+      <c r="A44" s="28"/>
+      <c r="B44" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
+      <c r="X44" s="70"/>
+      <c r="Y44" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z44" s="78"/>
+      <c r="AA44" s="78"/>
+      <c r="AB44" s="78"/>
+      <c r="AC44" s="70"/>
+      <c r="AD44" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE44" s="78"/>
+      <c r="AF44" s="78"/>
+      <c r="AG44" s="78"/>
+      <c r="AH44" s="77"/>
+      <c r="AI44" s="77"/>
+      <c r="AJ44" s="77"/>
+      <c r="AK44" s="77"/>
+      <c r="AL44" s="77"/>
+      <c r="AM44" s="77"/>
+      <c r="AN44" s="79"/>
+      <c r="AO44" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP44" s="77"/>
+      <c r="AQ44" s="77"/>
+      <c r="AR44" s="77"/>
+      <c r="AS44" s="77"/>
+      <c r="AT44" s="77"/>
+      <c r="AU44" s="77"/>
+      <c r="AV44" s="77"/>
+      <c r="AW44" s="79"/>
+    </row>
+    <row r="45" spans="1:51">
+      <c r="A45" s="28"/>
+      <c r="B45" s="80">
+        <v>1</v>
+      </c>
+      <c r="C45" s="81"/>
+      <c r="D45" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="81"/>
+      <c r="AD45" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="81"/>
+      <c r="AO45" s="82"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="30"/>
+      <c r="AS45" s="30"/>
+      <c r="AT45" s="30"/>
+      <c r="AU45" s="30"/>
+      <c r="AV45" s="30"/>
+      <c r="AW45" s="81"/>
+      <c r="AX45" s="68"/>
+    </row>
+    <row r="46" spans="1:51">
+      <c r="A46" s="28"/>
+      <c r="B46" s="80">
+        <v>2</v>
+      </c>
+      <c r="C46" s="81"/>
+      <c r="D46" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="81"/>
+      <c r="AD46" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="81"/>
+      <c r="AO46" s="82"/>
+      <c r="AP46" s="30"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="30"/>
+      <c r="AS46" s="30"/>
+      <c r="AT46" s="30"/>
+      <c r="AU46" s="30"/>
+      <c r="AV46" s="30"/>
+      <c r="AW46" s="81"/>
+      <c r="AX46" s="68"/>
+    </row>
+    <row r="47" spans="1:51">
+      <c r="A47" s="28"/>
+      <c r="B47" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="68"/>
+      <c r="AC47" s="68"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="68"/>
+      <c r="AF47" s="68"/>
+      <c r="AG47" s="68"/>
+      <c r="AH47" s="68"/>
+      <c r="AI47" s="68"/>
+      <c r="AJ47" s="68"/>
+      <c r="AK47" s="68"/>
+      <c r="AL47" s="68"/>
+      <c r="AM47" s="68"/>
+      <c r="AN47" s="68"/>
+      <c r="AO47" s="68"/>
+      <c r="AP47" s="68"/>
+      <c r="AQ47" s="68"/>
+      <c r="AR47" s="68"/>
+      <c r="AS47" s="68"/>
+      <c r="AT47" s="68"/>
+      <c r="AU47" s="68"/>
+      <c r="AV47" s="68"/>
+      <c r="AW47" s="68"/>
+      <c r="AX47" s="68"/>
+    </row>
+    <row r="48" spans="1:51" s="68" customFormat="1">
+      <c r="A48" s="28"/>
+      <c r="B48" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" s="85"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="85"/>
+      <c r="R48" s="86"/>
+      <c r="S48" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
+      <c r="AB48" s="78"/>
+      <c r="AC48" s="78"/>
+      <c r="AD48" s="78"/>
+      <c r="AE48" s="78"/>
+      <c r="AF48" s="78"/>
+      <c r="AG48" s="78"/>
+      <c r="AH48" s="78"/>
+      <c r="AI48" s="78"/>
+      <c r="AJ48" s="78"/>
+      <c r="AK48" s="70"/>
+      <c r="AL48" s="87"/>
+      <c r="AM48" s="87"/>
+      <c r="AN48" s="87"/>
+      <c r="AO48" s="87"/>
+      <c r="AP48" s="87"/>
+      <c r="AQ48" s="87"/>
+      <c r="AR48" s="87"/>
+      <c r="AS48" s="87"/>
+      <c r="AT48" s="87"/>
+      <c r="AU48" s="87"/>
+      <c r="AV48" s="87"/>
+      <c r="AW48" s="87"/>
+      <c r="AX48" s="87"/>
+      <c r="AY48" s="13"/>
+    </row>
+    <row r="49" spans="1:50">
+      <c r="A49" s="28"/>
+      <c r="B49" s="80">
+        <v>1</v>
+      </c>
+      <c r="C49" s="81"/>
+      <c r="D49" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="81"/>
+      <c r="AL49" s="68"/>
+      <c r="AM49" s="68"/>
+      <c r="AN49" s="68"/>
+      <c r="AO49" s="68"/>
+      <c r="AP49" s="68"/>
+      <c r="AQ49" s="68"/>
+      <c r="AR49" s="68"/>
+      <c r="AS49" s="68"/>
+      <c r="AT49" s="68"/>
+      <c r="AU49" s="68"/>
+      <c r="AV49" s="68"/>
+      <c r="AW49" s="68"/>
+      <c r="AX49" s="68"/>
+    </row>
+    <row r="50" spans="1:50">
+      <c r="A50" s="28"/>
+      <c r="B50" s="80">
+        <v>2</v>
+      </c>
+      <c r="C50" s="81"/>
+      <c r="D50" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="81"/>
+      <c r="S50" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="30"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="81"/>
+      <c r="AL50" s="68"/>
+      <c r="AM50" s="68"/>
+      <c r="AN50" s="68"/>
+      <c r="AO50" s="68"/>
+      <c r="AP50" s="68"/>
+      <c r="AQ50" s="68"/>
+      <c r="AR50" s="68"/>
+      <c r="AS50" s="68"/>
+      <c r="AT50" s="68"/>
+      <c r="AU50" s="68"/>
+      <c r="AV50" s="68"/>
+      <c r="AW50" s="68"/>
+      <c r="AX50" s="68"/>
+    </row>
+    <row r="51" spans="1:50">
       <c r="A51" s="20"/>
-      <c r="B51" s="24"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="21"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:50">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:50">
       <c r="A53" s="20"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="21"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:50">
       <c r="A54" s="20"/>
-      <c r="B54" s="24"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K48:R48"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_エラー画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_エラー画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/02_基本設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269D65DB-3C85-C44C-8277-AFB891FBED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E441C71A-64D3-470C-AC92-B7E76DE17E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="-28920" yWindow="-450" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">エラー画面!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">エラー画面!$A$1:$AX$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">エラー画面!$A$1:$AX$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AY$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$68</definedName>
   </definedNames>
@@ -31,7 +31,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -201,13 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・予測不可能なエラーが発生した場合、本画面(エラー画面)に遷移する</t>
-    <rPh sb="18" eb="21">
-      <t>ホｎン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャッチできない予測不可能なexception（例外）が発生した場合に表示</t>
     <rPh sb="8" eb="10">
       <t>ヨソｋウ</t>
@@ -323,9 +320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アプリを再起動する</t>
-  </si>
-  <si>
     <t>アプリを終了する</t>
     <rPh sb="3" eb="4">
       <t>ヲ</t>
@@ -382,12 +376,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・予測不可能なエラーが発生した場合、モーダル(エラー画面)を表示する</t>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -524,13 +525,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -678,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +778,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -883,24 +922,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,27 +931,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,15 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,7 +987,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3551"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3555"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1055,7 +1046,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2521"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2525"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1084,15 +1075,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>105832</xdr:colOff>
+      <xdr:colOff>141110</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>47038</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152871</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>176389</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1107,8 +1098,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="364536" y="2786945"/>
-          <a:ext cx="3151483" cy="5444537"/>
+          <a:off x="361596" y="2257778"/>
+          <a:ext cx="2063751" cy="2116667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1138,23 +1129,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>予期せぬ不具合が発生しました。</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1163,14 +1146,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>畏れ入りますが、しばらく経ってから操作してください。</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1179,14 +1162,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>復旧しない場合はお問合せください。</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1195,21 +1178,21 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>お問い合わせ先：</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1218,7 +1201,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1249,15 +1232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>188149</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>176389</xdr:rowOff>
+      <xdr:colOff>194027</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>164630</xdr:colOff>
+      <xdr:colOff>114653</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>88194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1272,35 +1255,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="446853" y="4915370"/>
-          <a:ext cx="1269999" cy="223426"/>
+          <a:off x="414513" y="4109156"/>
+          <a:ext cx="1023057" cy="247649"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:lumMod val="0"/>
-                <a:lumOff val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:lumMod val="0"/>
-                <a:lumOff val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="92000">
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1324,7 +1290,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1340,16 +1306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>176388</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>94073</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167569</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152869</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>117591</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1364,35 +1330,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="435092" y="5232869"/>
-          <a:ext cx="1269999" cy="223426"/>
+          <a:off x="1490486" y="4089278"/>
+          <a:ext cx="873125" cy="258707"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:lumMod val="0"/>
-                <a:lumOff val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:lumMod val="0"/>
-                <a:lumOff val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="92000">
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1416,7 +1365,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1735,198 +1684,198 @@
   </sheetPr>
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:53" ht="15" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="35" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="35" t="s">
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="35" t="s">
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="35" t="s">
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="37"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="52"/>
       <c r="BA1" s="3"/>
     </row>
     <row r="2" spans="1:53" ht="15" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="38" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="44">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="59">
         <v>44575</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="44">
-        <v>44576</v>
-      </c>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="40"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="59">
+        <v>44615</v>
+      </c>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="55"/>
       <c r="BA2" s="3"/>
     </row>
     <row r="3" spans="1:53" ht="15" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="43"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="58"/>
       <c r="BA3" s="3"/>
     </row>
     <row r="4" spans="1:53" ht="15" customHeight="1">
@@ -1969,21 +1918,21 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="3.33203125" style="3"/>
-    <col min="7" max="7" width="3.33203125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="3.33203125" style="3"/>
+    <col min="1" max="6" width="3.28515625" style="3"/>
+    <col min="7" max="7" width="3.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="3.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" customFormat="1" ht="15">
+    <row r="1" spans="1:52" customFormat="1" ht="12">
       <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:52" customFormat="1" ht="15"/>
-    <row r="3" spans="1:52" customFormat="1" ht="15"/>
-    <row r="4" spans="1:52" customFormat="1" ht="15"/>
-    <row r="5" spans="1:52" customFormat="1" ht="15"/>
-    <row r="7" spans="1:52" ht="18">
+    <row r="2" spans="1:52" customFormat="1" ht="12"/>
+    <row r="3" spans="1:52" customFormat="1" ht="12"/>
+    <row r="4" spans="1:52" customFormat="1" ht="12"/>
+    <row r="5" spans="1:52" customFormat="1" ht="12"/>
+    <row r="7" spans="1:52" ht="14.25">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -2055,64 +2004,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62">
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77">
         <v>44575</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65" t="s">
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="65" t="s">
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="67"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="81"/>
+      <c r="AS8" s="81"/>
+      <c r="AT8" s="81"/>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="81"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="81"/>
+      <c r="AZ8" s="82"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9">
@@ -2120,64 +2069,64 @@
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62">
+      <c r="C9" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77">
         <v>44576</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65" t="s">
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="66"/>
-      <c r="AY9" s="66"/>
-      <c r="AZ9" s="67"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="81"/>
+      <c r="AH9" s="81"/>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="81"/>
+      <c r="AK9" s="81"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="80"/>
+      <c r="AN9" s="81"/>
+      <c r="AO9" s="81"/>
+      <c r="AP9" s="81"/>
+      <c r="AQ9" s="81"/>
+      <c r="AR9" s="81"/>
+      <c r="AS9" s="81"/>
+      <c r="AT9" s="81"/>
+      <c r="AU9" s="81"/>
+      <c r="AV9" s="81"/>
+      <c r="AW9" s="81"/>
+      <c r="AX9" s="81"/>
+      <c r="AY9" s="81"/>
+      <c r="AZ9" s="82"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -2185,56 +2134,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="67"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="80"/>
+      <c r="AN10" s="81"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="81"/>
+      <c r="AQ10" s="81"/>
+      <c r="AR10" s="81"/>
+      <c r="AS10" s="81"/>
+      <c r="AT10" s="81"/>
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="81"/>
+      <c r="AW10" s="81"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="81"/>
+      <c r="AZ10" s="82"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -2242,56 +2191,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="67"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="67"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="81"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="80"/>
+      <c r="AN11" s="81"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="81"/>
+      <c r="AR11" s="81"/>
+      <c r="AS11" s="81"/>
+      <c r="AT11" s="81"/>
+      <c r="AU11" s="81"/>
+      <c r="AV11" s="81"/>
+      <c r="AW11" s="81"/>
+      <c r="AX11" s="81"/>
+      <c r="AY11" s="81"/>
+      <c r="AZ11" s="82"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -2299,56 +2248,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="67"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="80"/>
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="81"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="81"/>
+      <c r="AT12" s="81"/>
+      <c r="AU12" s="81"/>
+      <c r="AV12" s="81"/>
+      <c r="AW12" s="81"/>
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="81"/>
+      <c r="AZ12" s="82"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -2356,56 +2305,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="67"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="81"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="81"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="80"/>
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="81"/>
+      <c r="AQ13" s="81"/>
+      <c r="AR13" s="81"/>
+      <c r="AS13" s="81"/>
+      <c r="AT13" s="81"/>
+      <c r="AU13" s="81"/>
+      <c r="AV13" s="81"/>
+      <c r="AW13" s="81"/>
+      <c r="AX13" s="81"/>
+      <c r="AY13" s="81"/>
+      <c r="AZ13" s="82"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -2413,56 +2362,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="67"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="81"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="81"/>
+      <c r="AQ14" s="81"/>
+      <c r="AR14" s="81"/>
+      <c r="AS14" s="81"/>
+      <c r="AT14" s="81"/>
+      <c r="AU14" s="81"/>
+      <c r="AV14" s="81"/>
+      <c r="AW14" s="81"/>
+      <c r="AX14" s="81"/>
+      <c r="AY14" s="81"/>
+      <c r="AZ14" s="82"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -2470,56 +2419,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="67"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="81"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="81"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="81"/>
+      <c r="AO15" s="81"/>
+      <c r="AP15" s="81"/>
+      <c r="AQ15" s="81"/>
+      <c r="AR15" s="81"/>
+      <c r="AS15" s="81"/>
+      <c r="AT15" s="81"/>
+      <c r="AU15" s="81"/>
+      <c r="AV15" s="81"/>
+      <c r="AW15" s="81"/>
+      <c r="AX15" s="81"/>
+      <c r="AY15" s="81"/>
+      <c r="AZ15" s="82"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -2527,56 +2476,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="67"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="81"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="81"/>
+      <c r="AR16" s="81"/>
+      <c r="AS16" s="81"/>
+      <c r="AT16" s="81"/>
+      <c r="AU16" s="81"/>
+      <c r="AV16" s="81"/>
+      <c r="AW16" s="81"/>
+      <c r="AX16" s="81"/>
+      <c r="AY16" s="81"/>
+      <c r="AZ16" s="82"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -2584,56 +2533,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="67"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="67"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="81"/>
+      <c r="AL17" s="82"/>
+      <c r="AM17" s="80"/>
+      <c r="AN17" s="81"/>
+      <c r="AO17" s="81"/>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="81"/>
+      <c r="AR17" s="81"/>
+      <c r="AS17" s="81"/>
+      <c r="AT17" s="81"/>
+      <c r="AU17" s="81"/>
+      <c r="AV17" s="81"/>
+      <c r="AW17" s="81"/>
+      <c r="AX17" s="81"/>
+      <c r="AY17" s="81"/>
+      <c r="AZ17" s="82"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -2641,56 +2590,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="67"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="82"/>
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="81"/>
+      <c r="AO18" s="81"/>
+      <c r="AP18" s="81"/>
+      <c r="AQ18" s="81"/>
+      <c r="AR18" s="81"/>
+      <c r="AS18" s="81"/>
+      <c r="AT18" s="81"/>
+      <c r="AU18" s="81"/>
+      <c r="AV18" s="81"/>
+      <c r="AW18" s="81"/>
+      <c r="AX18" s="81"/>
+      <c r="AY18" s="81"/>
+      <c r="AZ18" s="82"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -2698,56 +2647,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="67"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="81"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="80"/>
+      <c r="AN19" s="81"/>
+      <c r="AO19" s="81"/>
+      <c r="AP19" s="81"/>
+      <c r="AQ19" s="81"/>
+      <c r="AR19" s="81"/>
+      <c r="AS19" s="81"/>
+      <c r="AT19" s="81"/>
+      <c r="AU19" s="81"/>
+      <c r="AV19" s="81"/>
+      <c r="AW19" s="81"/>
+      <c r="AX19" s="81"/>
+      <c r="AY19" s="81"/>
+      <c r="AZ19" s="82"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -2755,56 +2704,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="67"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="82"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="81"/>
+      <c r="AO20" s="81"/>
+      <c r="AP20" s="81"/>
+      <c r="AQ20" s="81"/>
+      <c r="AR20" s="81"/>
+      <c r="AS20" s="81"/>
+      <c r="AT20" s="81"/>
+      <c r="AU20" s="81"/>
+      <c r="AV20" s="81"/>
+      <c r="AW20" s="81"/>
+      <c r="AX20" s="81"/>
+      <c r="AY20" s="81"/>
+      <c r="AZ20" s="82"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -2812,56 +2761,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="67"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="82"/>
+      <c r="AM21" s="80"/>
+      <c r="AN21" s="81"/>
+      <c r="AO21" s="81"/>
+      <c r="AP21" s="81"/>
+      <c r="AQ21" s="81"/>
+      <c r="AR21" s="81"/>
+      <c r="AS21" s="81"/>
+      <c r="AT21" s="81"/>
+      <c r="AU21" s="81"/>
+      <c r="AV21" s="81"/>
+      <c r="AW21" s="81"/>
+      <c r="AX21" s="81"/>
+      <c r="AY21" s="81"/>
+      <c r="AZ21" s="82"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -2869,56 +2818,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="67"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="80"/>
+      <c r="AN22" s="81"/>
+      <c r="AO22" s="81"/>
+      <c r="AP22" s="81"/>
+      <c r="AQ22" s="81"/>
+      <c r="AR22" s="81"/>
+      <c r="AS22" s="81"/>
+      <c r="AT22" s="81"/>
+      <c r="AU22" s="81"/>
+      <c r="AV22" s="81"/>
+      <c r="AW22" s="81"/>
+      <c r="AX22" s="81"/>
+      <c r="AY22" s="81"/>
+      <c r="AZ22" s="82"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -2926,56 +2875,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="67"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81"/>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="80"/>
+      <c r="AN23" s="81"/>
+      <c r="AO23" s="81"/>
+      <c r="AP23" s="81"/>
+      <c r="AQ23" s="81"/>
+      <c r="AR23" s="81"/>
+      <c r="AS23" s="81"/>
+      <c r="AT23" s="81"/>
+      <c r="AU23" s="81"/>
+      <c r="AV23" s="81"/>
+      <c r="AW23" s="81"/>
+      <c r="AX23" s="81"/>
+      <c r="AY23" s="81"/>
+      <c r="AZ23" s="82"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -2983,56 +2932,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="67"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
-      <c r="AZ24" s="67"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="80"/>
+      <c r="AN24" s="81"/>
+      <c r="AO24" s="81"/>
+      <c r="AP24" s="81"/>
+      <c r="AQ24" s="81"/>
+      <c r="AR24" s="81"/>
+      <c r="AS24" s="81"/>
+      <c r="AT24" s="81"/>
+      <c r="AU24" s="81"/>
+      <c r="AV24" s="81"/>
+      <c r="AW24" s="81"/>
+      <c r="AX24" s="81"/>
+      <c r="AY24" s="81"/>
+      <c r="AZ24" s="82"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -3040,56 +2989,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="67"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="66"/>
-      <c r="AZ25" s="67"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="81"/>
+      <c r="AH25" s="81"/>
+      <c r="AI25" s="81"/>
+      <c r="AJ25" s="81"/>
+      <c r="AK25" s="81"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="80"/>
+      <c r="AN25" s="81"/>
+      <c r="AO25" s="81"/>
+      <c r="AP25" s="81"/>
+      <c r="AQ25" s="81"/>
+      <c r="AR25" s="81"/>
+      <c r="AS25" s="81"/>
+      <c r="AT25" s="81"/>
+      <c r="AU25" s="81"/>
+      <c r="AV25" s="81"/>
+      <c r="AW25" s="81"/>
+      <c r="AX25" s="81"/>
+      <c r="AY25" s="81"/>
+      <c r="AZ25" s="82"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -3097,56 +3046,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="65"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="66"/>
-      <c r="AR26" s="66"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="66"/>
-      <c r="AU26" s="66"/>
-      <c r="AV26" s="66"/>
-      <c r="AW26" s="66"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="66"/>
-      <c r="AZ26" s="67"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="81"/>
+      <c r="AO26" s="81"/>
+      <c r="AP26" s="81"/>
+      <c r="AQ26" s="81"/>
+      <c r="AR26" s="81"/>
+      <c r="AS26" s="81"/>
+      <c r="AT26" s="81"/>
+      <c r="AU26" s="81"/>
+      <c r="AV26" s="81"/>
+      <c r="AW26" s="81"/>
+      <c r="AX26" s="81"/>
+      <c r="AY26" s="81"/>
+      <c r="AZ26" s="82"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -3154,56 +3103,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="67"/>
-      <c r="AM27" s="65"/>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="66"/>
-      <c r="AP27" s="66"/>
-      <c r="AQ27" s="66"/>
-      <c r="AR27" s="66"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="66"/>
-      <c r="AU27" s="66"/>
-      <c r="AV27" s="66"/>
-      <c r="AW27" s="66"/>
-      <c r="AX27" s="66"/>
-      <c r="AY27" s="66"/>
-      <c r="AZ27" s="67"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="81"/>
+      <c r="AI27" s="81"/>
+      <c r="AJ27" s="81"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="81"/>
+      <c r="AO27" s="81"/>
+      <c r="AP27" s="81"/>
+      <c r="AQ27" s="81"/>
+      <c r="AR27" s="81"/>
+      <c r="AS27" s="81"/>
+      <c r="AT27" s="81"/>
+      <c r="AU27" s="81"/>
+      <c r="AV27" s="81"/>
+      <c r="AW27" s="81"/>
+      <c r="AX27" s="81"/>
+      <c r="AY27" s="81"/>
+      <c r="AZ27" s="82"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -3211,56 +3160,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="66"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="66"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="66"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="66"/>
-      <c r="AW28" s="66"/>
-      <c r="AX28" s="66"/>
-      <c r="AY28" s="66"/>
-      <c r="AZ28" s="67"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="80"/>
+      <c r="AN28" s="81"/>
+      <c r="AO28" s="81"/>
+      <c r="AP28" s="81"/>
+      <c r="AQ28" s="81"/>
+      <c r="AR28" s="81"/>
+      <c r="AS28" s="81"/>
+      <c r="AT28" s="81"/>
+      <c r="AU28" s="81"/>
+      <c r="AV28" s="81"/>
+      <c r="AW28" s="81"/>
+      <c r="AX28" s="81"/>
+      <c r="AY28" s="81"/>
+      <c r="AZ28" s="82"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -3268,56 +3217,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="65"/>
-      <c r="AN29" s="66"/>
-      <c r="AO29" s="66"/>
-      <c r="AP29" s="66"/>
-      <c r="AQ29" s="66"/>
-      <c r="AR29" s="66"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="66"/>
-      <c r="AU29" s="66"/>
-      <c r="AV29" s="66"/>
-      <c r="AW29" s="66"/>
-      <c r="AX29" s="66"/>
-      <c r="AY29" s="66"/>
-      <c r="AZ29" s="67"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="81"/>
+      <c r="AO29" s="81"/>
+      <c r="AP29" s="81"/>
+      <c r="AQ29" s="81"/>
+      <c r="AR29" s="81"/>
+      <c r="AS29" s="81"/>
+      <c r="AT29" s="81"/>
+      <c r="AU29" s="81"/>
+      <c r="AV29" s="81"/>
+      <c r="AW29" s="81"/>
+      <c r="AX29" s="81"/>
+      <c r="AY29" s="81"/>
+      <c r="AZ29" s="82"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -3325,56 +3274,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="65"/>
-      <c r="AN30" s="66"/>
-      <c r="AO30" s="66"/>
-      <c r="AP30" s="66"/>
-      <c r="AQ30" s="66"/>
-      <c r="AR30" s="66"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="66"/>
-      <c r="AU30" s="66"/>
-      <c r="AV30" s="66"/>
-      <c r="AW30" s="66"/>
-      <c r="AX30" s="66"/>
-      <c r="AY30" s="66"/>
-      <c r="AZ30" s="67"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="82"/>
+      <c r="AM30" s="80"/>
+      <c r="AN30" s="81"/>
+      <c r="AO30" s="81"/>
+      <c r="AP30" s="81"/>
+      <c r="AQ30" s="81"/>
+      <c r="AR30" s="81"/>
+      <c r="AS30" s="81"/>
+      <c r="AT30" s="81"/>
+      <c r="AU30" s="81"/>
+      <c r="AV30" s="81"/>
+      <c r="AW30" s="81"/>
+      <c r="AX30" s="81"/>
+      <c r="AY30" s="81"/>
+      <c r="AZ30" s="82"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -3382,56 +3331,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="67"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="66"/>
-      <c r="AU31" s="66"/>
-      <c r="AV31" s="66"/>
-      <c r="AW31" s="66"/>
-      <c r="AX31" s="66"/>
-      <c r="AY31" s="66"/>
-      <c r="AZ31" s="67"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="81"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="80"/>
+      <c r="AN31" s="81"/>
+      <c r="AO31" s="81"/>
+      <c r="AP31" s="81"/>
+      <c r="AQ31" s="81"/>
+      <c r="AR31" s="81"/>
+      <c r="AS31" s="81"/>
+      <c r="AT31" s="81"/>
+      <c r="AU31" s="81"/>
+      <c r="AV31" s="81"/>
+      <c r="AW31" s="81"/>
+      <c r="AX31" s="81"/>
+      <c r="AY31" s="81"/>
+      <c r="AZ31" s="82"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -3439,56 +3388,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="65"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="66"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
-      <c r="AW32" s="66"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="66"/>
-      <c r="AZ32" s="67"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="82"/>
+      <c r="AM32" s="80"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="81"/>
+      <c r="AP32" s="81"/>
+      <c r="AQ32" s="81"/>
+      <c r="AR32" s="81"/>
+      <c r="AS32" s="81"/>
+      <c r="AT32" s="81"/>
+      <c r="AU32" s="81"/>
+      <c r="AV32" s="81"/>
+      <c r="AW32" s="81"/>
+      <c r="AX32" s="81"/>
+      <c r="AY32" s="81"/>
+      <c r="AZ32" s="82"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -3496,56 +3445,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="67"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="81"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="82"/>
+      <c r="AM33" s="80"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="81"/>
+      <c r="AP33" s="81"/>
+      <c r="AQ33" s="81"/>
+      <c r="AR33" s="81"/>
+      <c r="AS33" s="81"/>
+      <c r="AT33" s="81"/>
+      <c r="AU33" s="81"/>
+      <c r="AV33" s="81"/>
+      <c r="AW33" s="81"/>
+      <c r="AX33" s="81"/>
+      <c r="AY33" s="81"/>
+      <c r="AZ33" s="82"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -3553,56 +3502,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="66"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="66"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="66"/>
-      <c r="AU34" s="66"/>
-      <c r="AV34" s="66"/>
-      <c r="AW34" s="66"/>
-      <c r="AX34" s="66"/>
-      <c r="AY34" s="66"/>
-      <c r="AZ34" s="67"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="81"/>
+      <c r="T34" s="81"/>
+      <c r="U34" s="81"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="82"/>
+      <c r="AM34" s="80"/>
+      <c r="AN34" s="81"/>
+      <c r="AO34" s="81"/>
+      <c r="AP34" s="81"/>
+      <c r="AQ34" s="81"/>
+      <c r="AR34" s="81"/>
+      <c r="AS34" s="81"/>
+      <c r="AT34" s="81"/>
+      <c r="AU34" s="81"/>
+      <c r="AV34" s="81"/>
+      <c r="AW34" s="81"/>
+      <c r="AX34" s="81"/>
+      <c r="AY34" s="81"/>
+      <c r="AZ34" s="82"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -3610,56 +3559,56 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="65"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="66"/>
-      <c r="AR35" s="66"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="66"/>
-      <c r="AU35" s="66"/>
-      <c r="AV35" s="66"/>
-      <c r="AW35" s="66"/>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="66"/>
-      <c r="AZ35" s="67"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="81"/>
+      <c r="V35" s="81"/>
+      <c r="W35" s="81"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="81"/>
+      <c r="Z35" s="81"/>
+      <c r="AA35" s="81"/>
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="81"/>
+      <c r="AD35" s="81"/>
+      <c r="AE35" s="81"/>
+      <c r="AF35" s="81"/>
+      <c r="AG35" s="81"/>
+      <c r="AH35" s="81"/>
+      <c r="AI35" s="81"/>
+      <c r="AJ35" s="81"/>
+      <c r="AK35" s="81"/>
+      <c r="AL35" s="82"/>
+      <c r="AM35" s="80"/>
+      <c r="AN35" s="81"/>
+      <c r="AO35" s="81"/>
+      <c r="AP35" s="81"/>
+      <c r="AQ35" s="81"/>
+      <c r="AR35" s="81"/>
+      <c r="AS35" s="81"/>
+      <c r="AT35" s="81"/>
+      <c r="AU35" s="81"/>
+      <c r="AV35" s="81"/>
+      <c r="AW35" s="81"/>
+      <c r="AX35" s="81"/>
+      <c r="AY35" s="81"/>
+      <c r="AZ35" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="140">
@@ -3814,18 +3763,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BA54"/>
+  <dimension ref="A1:BA42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="34" width="3.33203125" style="13"/>
-    <col min="35" max="35" width="3.33203125" style="13" customWidth="1"/>
-    <col min="36" max="16384" width="3.33203125" style="13"/>
+    <col min="1" max="34" width="3.28515625" style="13"/>
+    <col min="35" max="35" width="3.28515625" style="13" customWidth="1"/>
+    <col min="36" max="16384" width="3.28515625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" customFormat="1" ht="15">
+    <row r="1" spans="1:53" customFormat="1" ht="12">
       <c r="A1" s="24"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -3877,7 +3826,7 @@
       <c r="AW1" s="25"/>
       <c r="AX1" s="25"/>
     </row>
-    <row r="2" spans="1:53" customFormat="1" ht="15">
+    <row r="2" spans="1:53" customFormat="1" ht="12">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -3929,7 +3878,7 @@
       <c r="AW2" s="27"/>
       <c r="AX2" s="27"/>
     </row>
-    <row r="3" spans="1:53" customFormat="1" ht="15">
+    <row r="3" spans="1:53" customFormat="1" ht="12">
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -3981,7 +3930,7 @@
       <c r="AW3" s="27"/>
       <c r="AX3" s="27"/>
     </row>
-    <row r="4" spans="1:53" customFormat="1" ht="15">
+    <row r="4" spans="1:53" customFormat="1" ht="12">
       <c r="A4" s="26"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4033,7 +3982,7 @@
       <c r="AW4" s="27"/>
       <c r="AX4" s="27"/>
     </row>
-    <row r="5" spans="1:53" customFormat="1" ht="15">
+    <row r="5" spans="1:53" customFormat="1" ht="12">
       <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
@@ -4089,7 +4038,7 @@
     </row>
     <row r="6" spans="1:53" customFormat="1">
       <c r="A6" s="28" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -4144,7 +4093,7 @@
     <row r="7" spans="1:53">
       <c r="A7" s="28"/>
       <c r="B7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -5348,7 +5297,7 @@
       <c r="AW29" s="19"/>
       <c r="AX29" s="19"/>
     </row>
-    <row r="30" spans="1:50" ht="25">
+    <row r="30" spans="1:50" ht="25.5">
       <c r="A30" s="28"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -5402,1134 +5351,510 @@
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="28"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="19"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-    </row>
-    <row r="32" spans="1:50">
+      <c r="B31" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="35"/>
+      <c r="AL31" s="35"/>
+      <c r="AM31" s="35"/>
+      <c r="AN31" s="35"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="35"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="35"/>
+      <c r="AS31" s="35"/>
+      <c r="AT31" s="35"/>
+      <c r="AU31" s="35"/>
+      <c r="AV31" s="35"/>
+      <c r="AW31" s="35"/>
+      <c r="AX31" s="35"/>
+    </row>
+    <row r="32" spans="1:50" s="35" customFormat="1">
       <c r="A32" s="28"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="19"/>
-      <c r="AP32" s="19"/>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="19"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="19"/>
-      <c r="AV32" s="19"/>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="19"/>
+      <c r="B32" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP32" s="41"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="41"/>
+      <c r="AT32" s="41"/>
+      <c r="AU32" s="41"/>
+      <c r="AV32" s="41"/>
+      <c r="AW32" s="43"/>
     </row>
     <row r="33" spans="1:51">
       <c r="A33" s="28"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
-      <c r="AN33" s="19"/>
-      <c r="AO33" s="19"/>
-      <c r="AP33" s="19"/>
-      <c r="AQ33" s="19"/>
-      <c r="AR33" s="19"/>
-      <c r="AS33" s="19"/>
-      <c r="AT33" s="19"/>
-      <c r="AU33" s="19"/>
-      <c r="AV33" s="19"/>
-      <c r="AW33" s="19"/>
-      <c r="AX33" s="19"/>
+      <c r="B33" s="44">
+        <v>1</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="30"/>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="30"/>
+      <c r="AQ33" s="30"/>
+      <c r="AR33" s="30"/>
+      <c r="AS33" s="30"/>
+      <c r="AT33" s="30"/>
+      <c r="AU33" s="30"/>
+      <c r="AV33" s="30"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="35"/>
     </row>
     <row r="34" spans="1:51">
       <c r="A34" s="28"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="19"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
+      <c r="B34" s="44">
+        <v>2</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="30"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="30"/>
+      <c r="AV34" s="30"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="35"/>
     </row>
     <row r="35" spans="1:51">
       <c r="A35" s="28"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="19"/>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
-      <c r="AN35" s="19"/>
-      <c r="AO35" s="19"/>
-      <c r="AP35" s="19"/>
-      <c r="AQ35" s="19"/>
-      <c r="AR35" s="19"/>
-      <c r="AS35" s="19"/>
-      <c r="AT35" s="19"/>
-      <c r="AU35" s="19"/>
-      <c r="AV35" s="19"/>
-      <c r="AW35" s="19"/>
-      <c r="AX35" s="19"/>
-    </row>
-    <row r="36" spans="1:51">
+      <c r="B35" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="35"/>
+      <c r="AQ35" s="35"/>
+      <c r="AR35" s="35"/>
+      <c r="AS35" s="35"/>
+      <c r="AT35" s="35"/>
+      <c r="AU35" s="35"/>
+      <c r="AV35" s="35"/>
+      <c r="AW35" s="35"/>
+      <c r="AX35" s="35"/>
+    </row>
+    <row r="36" spans="1:51" s="35" customFormat="1">
       <c r="A36" s="28"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="19"/>
-      <c r="AO36" s="19"/>
-      <c r="AP36" s="19"/>
-      <c r="AQ36" s="19"/>
-      <c r="AR36" s="19"/>
-      <c r="AS36" s="19"/>
-      <c r="AT36" s="19"/>
-      <c r="AU36" s="19"/>
-      <c r="AV36" s="19"/>
-      <c r="AW36" s="19"/>
-      <c r="AX36" s="19"/>
+      <c r="B36" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="48"/>
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="48"/>
+      <c r="AP36" s="48"/>
+      <c r="AQ36" s="48"/>
+      <c r="AR36" s="48"/>
+      <c r="AS36" s="48"/>
+      <c r="AT36" s="48"/>
+      <c r="AU36" s="48"/>
+      <c r="AV36" s="48"/>
+      <c r="AW36" s="48"/>
+      <c r="AX36" s="48"/>
+      <c r="AY36" s="13"/>
     </row>
     <row r="37" spans="1:51">
       <c r="A37" s="28"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="19"/>
-      <c r="AN37" s="19"/>
-      <c r="AO37" s="19"/>
-      <c r="AP37" s="19"/>
-      <c r="AQ37" s="19"/>
-      <c r="AR37" s="19"/>
-      <c r="AS37" s="19"/>
-      <c r="AT37" s="19"/>
-      <c r="AU37" s="19"/>
-      <c r="AV37" s="19"/>
-      <c r="AW37" s="19"/>
-      <c r="AX37" s="19"/>
+      <c r="B37" s="44">
+        <v>1</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="35"/>
+      <c r="AQ37" s="35"/>
+      <c r="AR37" s="35"/>
+      <c r="AS37" s="35"/>
+      <c r="AT37" s="35"/>
+      <c r="AU37" s="35"/>
+      <c r="AV37" s="35"/>
+      <c r="AW37" s="35"/>
+      <c r="AX37" s="35"/>
     </row>
     <row r="38" spans="1:51">
       <c r="A38" s="28"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
-      <c r="AN38" s="19"/>
-      <c r="AO38" s="19"/>
-      <c r="AP38" s="19"/>
-      <c r="AQ38" s="19"/>
-      <c r="AR38" s="19"/>
-      <c r="AS38" s="19"/>
-      <c r="AT38" s="19"/>
-      <c r="AU38" s="19"/>
-      <c r="AV38" s="19"/>
-      <c r="AW38" s="19"/>
-      <c r="AX38" s="19"/>
-    </row>
-    <row r="39" spans="1:51">
-      <c r="A39" s="28"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="19"/>
-      <c r="AQ39" s="19"/>
-      <c r="AR39" s="19"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
-      <c r="AV39" s="19"/>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="19"/>
-    </row>
-    <row r="40" spans="1:51">
-      <c r="A40" s="28"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="19"/>
-      <c r="AP40" s="19"/>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="19"/>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
-      <c r="AV40" s="19"/>
-      <c r="AW40" s="19"/>
-      <c r="AX40" s="19"/>
-    </row>
-    <row r="41" spans="1:51">
-      <c r="A41" s="28"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="19"/>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
-      <c r="AS41" s="19"/>
-      <c r="AT41" s="19"/>
-      <c r="AU41" s="19"/>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="19"/>
-    </row>
-    <row r="42" spans="1:51">
-      <c r="A42" s="28"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-      <c r="AJ42" s="19"/>
-      <c r="AK42" s="19"/>
-      <c r="AL42" s="19"/>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="19"/>
-      <c r="AP42" s="19"/>
-      <c r="AQ42" s="19"/>
-      <c r="AR42" s="19"/>
-      <c r="AS42" s="19"/>
-      <c r="AT42" s="19"/>
-      <c r="AU42" s="19"/>
-      <c r="AV42" s="19"/>
-      <c r="AW42" s="19"/>
-      <c r="AX42" s="19"/>
-    </row>
-    <row r="43" spans="1:51">
-      <c r="A43" s="28"/>
-      <c r="B43" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="68"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="68"/>
-      <c r="AB43" s="68"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="68"/>
-      <c r="AF43" s="68"/>
-      <c r="AG43" s="68"/>
-      <c r="AH43" s="68"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="68"/>
-      <c r="AK43" s="68"/>
-      <c r="AL43" s="68"/>
-      <c r="AM43" s="68"/>
-      <c r="AN43" s="68"/>
-      <c r="AO43" s="68"/>
-      <c r="AP43" s="68"/>
-      <c r="AQ43" s="68"/>
-      <c r="AR43" s="68"/>
-      <c r="AS43" s="68"/>
-      <c r="AT43" s="68"/>
-      <c r="AU43" s="68"/>
-      <c r="AV43" s="68"/>
-      <c r="AW43" s="68"/>
-      <c r="AX43" s="68"/>
-    </row>
-    <row r="44" spans="1:51" s="68" customFormat="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="77"/>
-      <c r="S44" s="77"/>
-      <c r="T44" s="77"/>
-      <c r="U44" s="77"/>
-      <c r="V44" s="77"/>
-      <c r="W44" s="77"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="78"/>
-      <c r="AC44" s="70"/>
-      <c r="AD44" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE44" s="78"/>
-      <c r="AF44" s="78"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="77"/>
-      <c r="AI44" s="77"/>
-      <c r="AJ44" s="77"/>
-      <c r="AK44" s="77"/>
-      <c r="AL44" s="77"/>
-      <c r="AM44" s="77"/>
-      <c r="AN44" s="79"/>
-      <c r="AO44" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP44" s="77"/>
-      <c r="AQ44" s="77"/>
-      <c r="AR44" s="77"/>
-      <c r="AS44" s="77"/>
-      <c r="AT44" s="77"/>
-      <c r="AU44" s="77"/>
-      <c r="AV44" s="77"/>
-      <c r="AW44" s="79"/>
-    </row>
-    <row r="45" spans="1:51">
-      <c r="A45" s="28"/>
-      <c r="B45" s="80">
-        <v>1</v>
-      </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="30"/>
-      <c r="AH45" s="30"/>
-      <c r="AI45" s="30"/>
-      <c r="AJ45" s="30"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="30"/>
-      <c r="AM45" s="30"/>
-      <c r="AN45" s="81"/>
-      <c r="AO45" s="82"/>
-      <c r="AP45" s="30"/>
-      <c r="AQ45" s="30"/>
-      <c r="AR45" s="30"/>
-      <c r="AS45" s="30"/>
-      <c r="AT45" s="30"/>
-      <c r="AU45" s="30"/>
-      <c r="AV45" s="30"/>
-      <c r="AW45" s="81"/>
-      <c r="AX45" s="68"/>
-    </row>
-    <row r="46" spans="1:51">
-      <c r="A46" s="28"/>
-      <c r="B46" s="80">
+      <c r="B38" s="44">
         <v>2</v>
       </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="30"/>
-      <c r="AG46" s="30"/>
-      <c r="AH46" s="30"/>
-      <c r="AI46" s="30"/>
-      <c r="AJ46" s="30"/>
-      <c r="AK46" s="30"/>
-      <c r="AL46" s="30"/>
-      <c r="AM46" s="30"/>
-      <c r="AN46" s="81"/>
-      <c r="AO46" s="82"/>
-      <c r="AP46" s="30"/>
-      <c r="AQ46" s="30"/>
-      <c r="AR46" s="30"/>
-      <c r="AS46" s="30"/>
-      <c r="AT46" s="30"/>
-      <c r="AU46" s="30"/>
-      <c r="AV46" s="30"/>
-      <c r="AW46" s="81"/>
-      <c r="AX46" s="68"/>
-    </row>
-    <row r="47" spans="1:51">
-      <c r="A47" s="28"/>
-      <c r="B47" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
-      <c r="W47" s="68"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="68"/>
-      <c r="Z47" s="68"/>
-      <c r="AA47" s="68"/>
-      <c r="AB47" s="68"/>
-      <c r="AC47" s="68"/>
-      <c r="AD47" s="68"/>
-      <c r="AE47" s="68"/>
-      <c r="AF47" s="68"/>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="68"/>
-      <c r="AI47" s="68"/>
-      <c r="AJ47" s="68"/>
-      <c r="AK47" s="68"/>
-      <c r="AL47" s="68"/>
-      <c r="AM47" s="68"/>
-      <c r="AN47" s="68"/>
-      <c r="AO47" s="68"/>
-      <c r="AP47" s="68"/>
-      <c r="AQ47" s="68"/>
-      <c r="AR47" s="68"/>
-      <c r="AS47" s="68"/>
-      <c r="AT47" s="68"/>
-      <c r="AU47" s="68"/>
-      <c r="AV47" s="68"/>
-      <c r="AW47" s="68"/>
-      <c r="AX47" s="68"/>
-    </row>
-    <row r="48" spans="1:51" s="68" customFormat="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
-      <c r="Q48" s="85"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="69" t="s">
+      <c r="C38" s="45"/>
+      <c r="D38" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="T48" s="77"/>
-      <c r="U48" s="77"/>
-      <c r="V48" s="77"/>
-      <c r="W48" s="77"/>
-      <c r="X48" s="77"/>
-      <c r="Y48" s="77"/>
-      <c r="Z48" s="77"/>
-      <c r="AA48" s="77"/>
-      <c r="AB48" s="78"/>
-      <c r="AC48" s="78"/>
-      <c r="AD48" s="78"/>
-      <c r="AE48" s="78"/>
-      <c r="AF48" s="78"/>
-      <c r="AG48" s="78"/>
-      <c r="AH48" s="78"/>
-      <c r="AI48" s="78"/>
-      <c r="AJ48" s="78"/>
-      <c r="AK48" s="70"/>
-      <c r="AL48" s="87"/>
-      <c r="AM48" s="87"/>
-      <c r="AN48" s="87"/>
-      <c r="AO48" s="87"/>
-      <c r="AP48" s="87"/>
-      <c r="AQ48" s="87"/>
-      <c r="AR48" s="87"/>
-      <c r="AS48" s="87"/>
-      <c r="AT48" s="87"/>
-      <c r="AU48" s="87"/>
-      <c r="AV48" s="87"/>
-      <c r="AW48" s="87"/>
-      <c r="AX48" s="87"/>
-      <c r="AY48" s="13"/>
-    </row>
-    <row r="49" spans="1:50">
-      <c r="A49" s="28"/>
-      <c r="B49" s="80">
-        <v>1</v>
-      </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="82" t="s">
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30"/>
-      <c r="AE49" s="30"/>
-      <c r="AF49" s="30"/>
-      <c r="AG49" s="30"/>
-      <c r="AH49" s="30"/>
-      <c r="AI49" s="30"/>
-      <c r="AJ49" s="30"/>
-      <c r="AK49" s="81"/>
-      <c r="AL49" s="68"/>
-      <c r="AM49" s="68"/>
-      <c r="AN49" s="68"/>
-      <c r="AO49" s="68"/>
-      <c r="AP49" s="68"/>
-      <c r="AQ49" s="68"/>
-      <c r="AR49" s="68"/>
-      <c r="AS49" s="68"/>
-      <c r="AT49" s="68"/>
-      <c r="AU49" s="68"/>
-      <c r="AV49" s="68"/>
-      <c r="AW49" s="68"/>
-      <c r="AX49" s="68"/>
-    </row>
-    <row r="50" spans="1:50">
-      <c r="A50" s="28"/>
-      <c r="B50" s="80">
-        <v>2</v>
-      </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30"/>
-      <c r="AD50" s="30"/>
-      <c r="AE50" s="30"/>
-      <c r="AF50" s="30"/>
-      <c r="AG50" s="30"/>
-      <c r="AH50" s="30"/>
-      <c r="AI50" s="30"/>
-      <c r="AJ50" s="30"/>
-      <c r="AK50" s="81"/>
-      <c r="AL50" s="68"/>
-      <c r="AM50" s="68"/>
-      <c r="AN50" s="68"/>
-      <c r="AO50" s="68"/>
-      <c r="AP50" s="68"/>
-      <c r="AQ50" s="68"/>
-      <c r="AR50" s="68"/>
-      <c r="AS50" s="68"/>
-      <c r="AT50" s="68"/>
-      <c r="AU50" s="68"/>
-      <c r="AV50" s="68"/>
-      <c r="AW50" s="68"/>
-      <c r="AX50" s="68"/>
-    </row>
-    <row r="51" spans="1:50">
-      <c r="A51" s="20"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="21"/>
-    </row>
-    <row r="52" spans="1:50">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-    </row>
-    <row r="53" spans="1:50">
-      <c r="A53" s="20"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="21"/>
-    </row>
-    <row r="54" spans="1:50">
-      <c r="A54" s="20"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="21"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35"/>
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="35"/>
+      <c r="AS38" s="35"/>
+      <c r="AT38" s="35"/>
+      <c r="AU38" s="35"/>
+      <c r="AV38" s="35"/>
+      <c r="AW38" s="35"/>
+      <c r="AX38" s="35"/>
+    </row>
+    <row r="39" spans="1:51" ht="14.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="21"/>
+    </row>
+    <row r="40" spans="1:51" ht="14.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+    </row>
+    <row r="41" spans="1:51" ht="14.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="21"/>
+    </row>
+    <row r="42" spans="1:51" ht="14.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K36:R36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
